--- a/etl_model_design.xlsx
+++ b/etl_model_design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffz\Downloads\sRGsZezE7EeRqVXTjl0HHA-etl_design_bundle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB782F15-DA48-480D-B8BA-EF9EC9710DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C30310-4617-4785-9DD0-032901514A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10970" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22940" yWindow="-7120" windowWidth="17530" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>模块</t>
   </si>
@@ -214,6 +214,61 @@
   </si>
   <si>
     <t>脚本唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETLJob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行内容，这里会关联上下游配置，脚本配置，字段映射等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSourceId</t>
+  </si>
+  <si>
+    <t>关联上游数据源ID</t>
+  </si>
+  <si>
+    <t>TargetSinkId</t>
+  </si>
+  <si>
+    <t>关联下游目标ID</t>
+  </si>
+  <si>
+    <t>ScriptId</t>
+  </si>
+  <si>
+    <t>关联清洗脚本ID（可选）</t>
+  </si>
+  <si>
+    <t>FieldMappings</t>
+  </si>
+  <si>
+    <t>json/array</t>
+  </si>
+  <si>
+    <t>字段映射列表（或引用映射配置ID）</t>
+  </si>
+  <si>
+    <t>TransformScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetSink</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,9 +370,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -788,12 +845,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -856,19 +913,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
@@ -944,22 +1001,34 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
@@ -968,114 +1037,202 @@
         <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1083,8 +1240,8 @@
   <mergeCells count="4">
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etl_model_design.xlsx
+++ b/etl_model_design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffz\Downloads\sRGsZezE7EeRqVXTjl0HHA-etl_design_bundle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\others\mini-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C30310-4617-4785-9DD0-032901514A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE3476B-CB2E-4960-B7D3-4093DB14E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="-7120" windowWidth="17530" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23170" yWindow="-6890" windowWidth="17530" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="131">
   <si>
     <t>模块</t>
   </si>
@@ -270,6 +270,166 @@
   <si>
     <t>TargetSink</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行记录唯一标识</t>
+  </si>
+  <si>
+    <t>JobId</t>
+  </si>
+  <si>
+    <t>关联的ETL任务ID</t>
+  </si>
+  <si>
+    <t>JobName</t>
+  </si>
+  <si>
+    <t>任务名称快照（用于展示）</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>enum(TriggerType)</t>
+  </si>
+  <si>
+    <t>触发方式：Scheduled(定时)/Manual(手动)/API(接口调用)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>enum(ExecutionStatus)</t>
+  </si>
+  <si>
+    <t>执行状态：Pending(待执行)/Running(执行中)/Success(成功)/Failed(失败)/Cancelled(已取消)</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>开始执行时间</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>DateTime?</t>
+  </si>
+  <si>
+    <t>结束时间（执行中时为空）</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>执行耗时（毫秒）</t>
+  </si>
+  <si>
+    <t>CurrentStage</t>
+  </si>
+  <si>
+    <t>enum(ExecutionStage)</t>
+  </si>
+  <si>
+    <t>当前阶段：Extract(采集)/Transform(转换)/Load(写入)/Complete(完成)</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>执行进度百分比（0-100）</t>
+  </si>
+  <si>
+    <t>SourceRecordCount</t>
+  </si>
+  <si>
+    <t>源数据记录数</t>
+  </si>
+  <si>
+    <t>ProcessedCount</t>
+  </si>
+  <si>
+    <t>已处理记录数</t>
+  </si>
+  <si>
+    <t>SuccessCount</t>
+  </si>
+  <si>
+    <t>成功写入记录数</t>
+  </si>
+  <si>
+    <t>FailedCount</t>
+  </si>
+  <si>
+    <t>失败记录数</t>
+  </si>
+  <si>
+    <t>SkippedCount</t>
+  </si>
+  <si>
+    <t>跳过记录数（如数据过滤）</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>错误信息（失败时记录）</t>
+  </si>
+  <si>
+    <t>ErrorStackTrace</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>异常堆栈信息</t>
+  </si>
+  <si>
+    <t>ExecutionDetails</t>
+  </si>
+  <si>
+    <t>详细执行信息（各阶段耗时、中间结果等）</t>
+  </si>
+  <si>
+    <t>TriggeredBy</t>
+  </si>
+  <si>
+    <t>触发人/系统标识</t>
+  </si>
+  <si>
+    <t>ServerHost</t>
+  </si>
+  <si>
+    <t>执行服务器地址</t>
+  </si>
+  <si>
+    <t>CreatedAt</t>
+  </si>
+  <si>
+    <t>记录创建时间</t>
+  </si>
+  <si>
+    <t>UpdatedAt</t>
+  </si>
+  <si>
+    <t>记录最后更新时间</t>
+  </si>
+  <si>
+    <t>执行记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobExecutionLog</t>
   </si>
 </sst>
 </file>
@@ -292,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -384,6 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,15 +855,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
@@ -1234,6 +1401,454 @@
       </c>
       <c r="F29" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
